--- a/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-18T15:23:43+00:00</t>
+    <t>2024-11-25T16:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T16:24:54+00:00</t>
+    <t>2024-11-25T16:35:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-25T16:35:12+00:00</t>
+    <t>2024-11-26T14:15:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T14:15:09+00:00</t>
+    <t>2024-11-26T16:12:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
+++ b/patch-capability-statement-ror-32/ig/StructureDefinition-ror-organization-additional-name.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-26T16:12:37+00:00</t>
+    <t>2024-11-26T16:23:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
